--- a/Generator.xlsx
+++ b/Generator.xlsx
@@ -115,21 +115,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -422,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,32 +453,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">RANDBETWEEN(1,8)*10</f>
-        <v>50</v>
+        <f ca="1">RANDBETWEEN(2,8)*10</f>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="str">
         <f ca="1">INDEX($J$4:$J$10,RANDBETWEEN(1,ROWS($J$4:$J$10)),1)</f>
-        <v>thursday</v>
+        <v>tuesday</v>
       </c>
       <c r="D2" s="2">
         <f ca="1">INDEX($I$4:$I$7,RANDBETWEEN(1,ROWS($I$4:$I$7)),1)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="2">
         <f ca="1">RANDBETWEEN(16,40)/2</f>
-        <v>8</v>
+        <v>17.5</v>
       </c>
       <c r="F2" s="2">
         <f ca="1">RANDBETWEEN(0,6)/4</f>
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="G2" s="2">
         <f ca="1">RANDBETWEEN(0,10)+RANDBETWEEN(0,5)/10</f>
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="H2" s="2">
         <f ca="1">RANDBETWEEN(0,10)+RANDBETWEEN(0,5)/10</f>
-        <v>10.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -502,32 +488,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B66" ca="1" si="1">RANDBETWEEN(1,8)*10</f>
-        <v>60</v>
+        <f t="shared" ref="B3:B66" ca="1" si="1">RANDBETWEEN(2,8)*10</f>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="2">INDEX($J$4:$J$10,RANDBETWEEN(1,ROWS($J$4:$J$10)),1)</f>
-        <v>saturday</v>
+        <v>thursday</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" ca="1" si="3">INDEX($I$4:$I$7,RANDBETWEEN(1,ROWS($I$4:$I$7)),1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E66" ca="1" si="4">RANDBETWEEN(16,40)/2</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F66" ca="1" si="5">RANDBETWEEN(0,6)/4</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:H20" ca="1" si="6">RANDBETWEEN(0,10)+RANDBETWEEN(0,5)/10</f>
-        <v>6.5</v>
+        <v>10.4</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.4</v>
+        <v>8.5</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -538,31 +524,31 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>sunday</v>
+        <v>wednesday</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.1</v>
+        <v>4.3</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="I4" s="2">
         <v>0.5</v>
@@ -578,31 +564,31 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>saturday</v>
+        <v>monday</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>8.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -618,31 +604,31 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>sunday</v>
+        <v>tuesday</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="I6" s="2">
         <v>2</v>
@@ -658,19 +644,19 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>thursday</v>
+        <v>wednesday</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -678,11 +664,11 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.1</v>
+        <v>6.1</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>7.3</v>
+        <v>10.3</v>
       </c>
       <c r="I7" s="2">
         <v>3</v>
@@ -702,15 +688,15 @@
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>friday</v>
+        <v>saturday</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -718,11 +704,11 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>2</v>
@@ -739,7 +725,7 @@
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>thursday</v>
+        <v>wednesday</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -747,19 +733,19 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>13</v>
@@ -772,31 +758,31 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>saturday</v>
+        <v>friday</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2</v>
+        <v>6.3</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>14</v>
@@ -809,7 +795,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -817,11 +803,11 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -829,11 +815,11 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>6.3</v>
+        <v>3.1</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.5</v>
+        <v>6.1</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -848,27 +834,27 @@
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>tuesday</v>
+        <v>saturday</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>10.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>10.5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -879,31 +865,31 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>sunday</v>
+        <v>friday</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.1999999999999993</v>
+        <v>3.1</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -914,31 +900,31 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>monday</v>
+        <v>saturday</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14.5</v>
+        <v>9.5</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2</v>
+        <v>10.3</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>8.1999999999999993</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -953,7 +939,7 @@
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>sunday</v>
+        <v>thursday</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -961,19 +947,19 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -984,11 +970,11 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>monday</v>
+        <v>tuesday</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -1000,11 +986,11 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -1019,11 +1005,11 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>thursday</v>
+        <v>monday</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -1031,19 +1017,19 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -1054,7 +1040,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1062,11 +1048,11 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1074,11 +1060,11 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2</v>
+        <v>9.1</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4.4000000000000004</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -1089,31 +1075,31 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>tuesday</v>
+        <v>monday</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.3000000000000007</v>
+        <v>5.3</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2</v>
+        <v>0.2</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -1124,11 +1110,11 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>monday</v>
+        <v>thursday</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -1136,19 +1122,19 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -1159,19 +1145,19 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>sunday</v>
+        <v>saturday</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1179,11 +1165,11 @@
       </c>
       <c r="G21" s="2">
         <f ca="1">VALUE(G2)</f>
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="H21" s="2">
         <f ca="1">VALUE(H2)</f>
-        <v>10.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -1198,7 +1184,7 @@
       </c>
       <c r="C22" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>sunday</v>
+        <v>thursday</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -1206,7 +1192,7 @@
       </c>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1214,11 +1200,11 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" ref="G22:H36" ca="1" si="7">VALUE(G3)</f>
-        <v>6.5</v>
+        <v>10.4</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>9.4</v>
+        <v>8.5</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -1233,7 +1219,7 @@
       </c>
       <c r="C23" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>wednesday</v>
+        <v>saturday</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -1241,19 +1227,19 @@
       </c>
       <c r="E23" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.1</v>
+        <v>4.3</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="J23" s="1"/>
     </row>
@@ -1268,27 +1254,27 @@
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>saturday</v>
+        <v>thursday</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>8.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="J24" s="1"/>
     </row>
@@ -1299,31 +1285,31 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>saturday</v>
+        <v>friday</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.5</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>19.5</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.25</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -1334,31 +1320,31 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>monday</v>
+        <v>friday</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>9.1</v>
+        <v>6.1</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>7.3</v>
+        <v>10.3</v>
       </c>
       <c r="J26" s="1"/>
     </row>
@@ -1373,7 +1359,7 @@
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>friday</v>
+        <v>monday</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -1381,19 +1367,19 @@
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="J27" s="1"/>
     </row>
@@ -1404,19 +1390,19 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>thursday</v>
+        <v>monday</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1424,11 +1410,11 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J28" s="1"/>
     </row>
@@ -1439,31 +1425,31 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>thursday</v>
+        <v>saturday</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2</v>
+        <v>6.3</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="J29" s="1"/>
     </row>
@@ -1474,31 +1460,31 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>wednesday</v>
+        <v>friday</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>6.3</v>
+        <v>3.1</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5</v>
+        <v>6.1</v>
       </c>
       <c r="J30" s="1"/>
     </row>
@@ -1509,31 +1495,31 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>friday</v>
+        <v>saturday</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>10.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>10.5</v>
+        <v>4</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -1544,31 +1530,31 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>thursday</v>
+        <v>monday</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>9.1999999999999993</v>
+        <v>3.1</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J32" s="1"/>
     </row>
@@ -1579,7 +1565,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1591,19 +1577,19 @@
       </c>
       <c r="E33" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2</v>
+        <v>10.3</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>8.1999999999999993</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -1614,11 +1600,11 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>monday</v>
+        <v>thursday</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -1626,19 +1612,19 @@
       </c>
       <c r="E34" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>9.1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="1"/>
     </row>
@@ -1649,19 +1635,19 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>friday</v>
+        <v>sunday</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1669,7 +1655,7 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" ca="1" si="7"/>
@@ -1684,7 +1670,7 @@
       </c>
       <c r="B36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1692,23 +1678,23 @@
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J36" s="1"/>
     </row>
@@ -1719,31 +1705,31 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>thursday</v>
+        <v>saturday</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" ref="G37:H66" ca="1" si="8">RANDBETWEEN(0,10)+RANDBETWEEN(0,5)/10</f>
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J37" s="1"/>
     </row>
@@ -1762,23 +1748,23 @@
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="J38" s="1"/>
     </row>
@@ -1789,31 +1775,31 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>wednesday</v>
+        <v>monday</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="J39" s="1"/>
     </row>
@@ -1824,31 +1810,31 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>thursday</v>
+        <v>friday</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3.4</v>
+        <v>6.3</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3.2</v>
+        <v>10.4</v>
       </c>
       <c r="J40" s="1"/>
     </row>
@@ -1863,15 +1849,15 @@
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>saturday</v>
+        <v>tuesday</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1879,11 +1865,11 @@
       </c>
       <c r="G41" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>6.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8.4</v>
+        <v>3.4</v>
       </c>
       <c r="J41" s="1"/>
     </row>
@@ -1894,31 +1880,31 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>monday</v>
+        <v>saturday</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="J42" s="1"/>
     </row>
@@ -1933,27 +1919,27 @@
       </c>
       <c r="C43" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>friday</v>
+        <v>sunday</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>6.3</v>
+        <v>1.2</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>7.3</v>
+        <v>9.4</v>
       </c>
       <c r="J43" s="1"/>
     </row>
@@ -1964,31 +1950,31 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C44" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>thursday</v>
+        <v>friday</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.2000000000000002</v>
+        <v>6.3</v>
       </c>
       <c r="J44" s="1"/>
     </row>
@@ -1999,31 +1985,31 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>thursday</v>
+        <v>monday</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>19.5</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>5.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10.3</v>
+        <v>3</v>
       </c>
       <c r="J45" s="1"/>
     </row>
@@ -2034,11 +2020,11 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C46" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>monday</v>
+        <v>friday</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -2046,7 +2032,7 @@
       </c>
       <c r="E46" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8.5</v>
+        <v>16</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2054,11 +2040,11 @@
       </c>
       <c r="G46" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3.2</v>
+        <v>9.5</v>
       </c>
       <c r="J46" s="1"/>
     </row>
@@ -2069,31 +2055,31 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C47" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>saturday</v>
+        <v>friday</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="J47" s="1"/>
     </row>
@@ -2104,31 +2090,31 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C48" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>wednesday</v>
+        <v>thursday</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>4.5</v>
+        <v>10.1</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="J48" s="1"/>
     </row>
@@ -2139,11 +2125,11 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C49" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>saturday</v>
+        <v>wednesday</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -2151,19 +2137,19 @@
       </c>
       <c r="E49" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>4.4000000000000004</v>
+        <v>9.5</v>
       </c>
       <c r="J49" s="1"/>
     </row>
@@ -2174,31 +2160,31 @@
       </c>
       <c r="B50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C50" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>saturday</v>
+        <v>tuesday</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>6.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="J50" s="1"/>
     </row>
@@ -2209,7 +2195,7 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2217,23 +2203,23 @@
       </c>
       <c r="D51" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9.3000000000000007</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J51" s="1"/>
     </row>
@@ -2244,31 +2230,31 @@
       </c>
       <c r="B52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C52" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>friday</v>
+        <v>tuesday</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="F52" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9.1999999999999993</v>
+        <v>4.2</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J52" s="1"/>
     </row>
@@ -2279,11 +2265,11 @@
       </c>
       <c r="B53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C53" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>tuesday</v>
+        <v>sunday</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -2291,7 +2277,7 @@
       </c>
       <c r="E53" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="F53" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2299,11 +2285,11 @@
       </c>
       <c r="G53" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10.3</v>
+        <v>8.1</v>
       </c>
       <c r="J53" s="1"/>
     </row>
@@ -2314,31 +2300,31 @@
       </c>
       <c r="B54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>thursday</v>
+        <v>tuesday</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>6.4</v>
+        <v>10.3</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>6.2</v>
       </c>
       <c r="J54" s="1"/>
     </row>
@@ -2349,19 +2335,19 @@
       </c>
       <c r="B55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>saturday</v>
+        <v>monday</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2369,11 +2355,11 @@
       </c>
       <c r="G55" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>5.0999999999999996</v>
+        <v>3.1</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10.1</v>
+        <v>7.3</v>
       </c>
       <c r="J55" s="1"/>
     </row>
@@ -2392,23 +2378,23 @@
       </c>
       <c r="D56" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>15.5</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="J56" s="1"/>
     </row>
@@ -2419,31 +2405,31 @@
       </c>
       <c r="B57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>sunday</v>
+        <v>tuesday</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>7.5</v>
+        <v>0.3</v>
       </c>
       <c r="H57" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8.1999999999999993</v>
+        <v>3.5</v>
       </c>
       <c r="J57" s="1"/>
     </row>
@@ -2454,7 +2440,7 @@
       </c>
       <c r="B58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C58" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2466,19 +2452,19 @@
       </c>
       <c r="E58" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8.4</v>
+        <v>0.4</v>
       </c>
       <c r="J58" s="1"/>
     </row>
@@ -2489,31 +2475,31 @@
       </c>
       <c r="B59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>wednesday</v>
+        <v>tuesday</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="F59" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="G59" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>7.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3</v>
+        <v>10.1</v>
       </c>
       <c r="J59" s="1"/>
     </row>
@@ -2524,7 +2510,7 @@
       </c>
       <c r="B60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2532,23 +2518,23 @@
       </c>
       <c r="D60" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E60" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -2563,27 +2549,27 @@
       </c>
       <c r="C61" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>tuesday</v>
+        <v>thursday</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5</v>
+        <v>8.1</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="J61" s="1"/>
     </row>
@@ -2594,31 +2580,31 @@
       </c>
       <c r="B62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C62" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>friday</v>
+        <v>thursday</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E62" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>7.4</v>
+        <v>3.1</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J62" s="1"/>
     </row>
@@ -2629,19 +2615,19 @@
       </c>
       <c r="B63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>monday</v>
+        <v>sunday</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F63" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2649,11 +2635,11 @@
       </c>
       <c r="G63" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>7.3</v>
+        <v>2.1</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J63" s="1"/>
     </row>
@@ -2664,11 +2650,11 @@
       </c>
       <c r="B64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>tuesday</v>
+        <v>wednesday</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -2676,7 +2662,7 @@
       </c>
       <c r="E64" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="F64" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2684,11 +2670,11 @@
       </c>
       <c r="G64" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.2000000000000002</v>
+        <v>10.1</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10.4</v>
+        <v>7.4</v>
       </c>
       <c r="J64" s="1"/>
     </row>
@@ -2699,15 +2685,15 @@
       </c>
       <c r="B65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C65" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>saturday</v>
+        <v>wednesday</v>
       </c>
       <c r="D65" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E65" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2715,15 +2701,15 @@
       </c>
       <c r="F65" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10.1</v>
+        <v>6.5</v>
       </c>
       <c r="H65" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="J65" s="1"/>
     </row>
@@ -2734,31 +2720,31 @@
       </c>
       <c r="B66" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C66" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>saturday</v>
+        <v>monday</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="F66" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H66" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J66" s="1"/>
     </row>
@@ -2768,32 +2754,32 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <f t="shared" ref="B67:B101" ca="1" si="10">RANDBETWEEN(1,8)*10</f>
-        <v>70</v>
+        <f t="shared" ref="B67:B101" ca="1" si="10">RANDBETWEEN(2,8)*10</f>
+        <v>60</v>
       </c>
       <c r="C67" s="2" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="11">INDEX($J$4:$J$10,RANDBETWEEN(1,ROWS($J$4:$J$10)),1)</f>
-        <v>wednesday</v>
+        <v>friday</v>
       </c>
       <c r="D67" s="2">
         <f t="shared" ref="D67:D101" ca="1" si="12">INDEX($I$4:$I$7,RANDBETWEEN(1,ROWS($I$4:$I$7)),1)</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E67" s="2">
         <f t="shared" ref="E67:E101" ca="1" si="13">RANDBETWEEN(16,40)/2</f>
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="F67" s="2">
         <f t="shared" ref="F67:F101" ca="1" si="14">RANDBETWEEN(0,6)/4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="2">
         <f t="shared" ref="G67:H85" ca="1" si="15">RANDBETWEEN(0,10)+RANDBETWEEN(0,5)/10</f>
-        <v>3.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H67" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J67" s="1"/>
     </row>
@@ -2808,11 +2794,11 @@
       </c>
       <c r="C68" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>sunday</v>
+        <v>monday</v>
       </c>
       <c r="D68" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -2820,15 +2806,15 @@
       </c>
       <c r="F68" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G68" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>5.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H68" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>2.2999999999999998</v>
+        <v>3.4</v>
       </c>
       <c r="J68" s="1"/>
     </row>
@@ -2839,31 +2825,31 @@
       </c>
       <c r="B69" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C69" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>saturday</v>
+        <v>thursday</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E69" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F69" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="G69" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>4.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H69" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="J69" s="1"/>
     </row>
@@ -2874,19 +2860,19 @@
       </c>
       <c r="B70" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C70" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>sunday</v>
+        <v>saturday</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E70" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F70" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -2894,11 +2880,11 @@
       </c>
       <c r="G70" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>7.2</v>
+        <v>2.5</v>
       </c>
       <c r="H70" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="J70" s="1"/>
     </row>
@@ -2909,31 +2895,31 @@
       </c>
       <c r="B71" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C71" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>thursday</v>
+        <v>monday</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E71" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F71" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="G71" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="H71" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>4.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J71" s="1"/>
     </row>
@@ -2944,19 +2930,19 @@
       </c>
       <c r="B72" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>wednesday</v>
+        <v>tuesday</v>
       </c>
       <c r="D72" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="F72" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -2964,11 +2950,11 @@
       </c>
       <c r="G72" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="H72" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>9.1999999999999993</v>
+        <v>2.5</v>
       </c>
       <c r="J72" s="1"/>
     </row>
@@ -2979,31 +2965,31 @@
       </c>
       <c r="B73" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>sunday</v>
+        <v>monday</v>
       </c>
       <c r="D73" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E73" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="F73" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>0.1</v>
+        <v>7</v>
       </c>
       <c r="H73" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>10.4</v>
+        <v>7.5</v>
       </c>
       <c r="J73" s="1"/>
     </row>
@@ -3014,31 +3000,31 @@
       </c>
       <c r="B74" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C74" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>tuesday</v>
+        <v>wednesday</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E74" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H74" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>1.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J74" s="1"/>
     </row>
@@ -3049,31 +3035,31 @@
       </c>
       <c r="B75" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C75" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>monday</v>
+        <v>saturday</v>
       </c>
       <c r="D75" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E75" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="F75" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="G75" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>10.1</v>
+        <v>0.1</v>
       </c>
       <c r="H75" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="J75" s="1"/>
     </row>
@@ -3084,7 +3070,7 @@
       </c>
       <c r="B76" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3092,23 +3078,23 @@
       </c>
       <c r="D76" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E76" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="F76" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G76" s="2">
         <f ca="1">G2</f>
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="H76" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J76" s="1"/>
     </row>
@@ -3119,31 +3105,31 @@
       </c>
       <c r="B77" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C77" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>thursday</v>
+        <v>monday</v>
       </c>
       <c r="D77" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E77" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F77" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G77" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>3.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H77" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>2.2999999999999998</v>
+        <v>10.4</v>
       </c>
       <c r="J77" s="1"/>
     </row>
@@ -3154,31 +3140,31 @@
       </c>
       <c r="B78" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>friday</v>
+        <v>saturday</v>
       </c>
       <c r="D78" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E78" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="F78" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G78" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>0.3</v>
+        <v>4.3</v>
       </c>
       <c r="H78" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>10.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J78" s="1"/>
     </row>
@@ -3189,27 +3175,27 @@
       </c>
       <c r="B79" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C79" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>monday</v>
+        <v>wednesday</v>
       </c>
       <c r="D79" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="F79" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G79" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H79" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -3224,7 +3210,7 @@
       </c>
       <c r="B80" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C80" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3236,19 +3222,19 @@
       </c>
       <c r="E80" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="F80" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G80" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>6.2</v>
+        <v>0.4</v>
       </c>
       <c r="H80" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="J80" s="1"/>
     </row>
@@ -3259,31 +3245,31 @@
       </c>
       <c r="B81" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C81" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>sunday</v>
+        <v>friday</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="F81" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G81" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>3.3</v>
+        <v>10.4</v>
       </c>
       <c r="H81" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="J81" s="1"/>
     </row>
@@ -3294,31 +3280,31 @@
       </c>
       <c r="B82" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C82" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>wednesday</v>
+        <v>tuesday</v>
       </c>
       <c r="D82" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F82" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="H82" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>3.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J82" s="1"/>
     </row>
@@ -3329,23 +3315,23 @@
       </c>
       <c r="B83" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C83" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>wednesday</v>
+        <v>tuesday</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E83" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F83" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -3353,7 +3339,7 @@
       </c>
       <c r="H83" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>10.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J83" s="1"/>
     </row>
@@ -3368,15 +3354,15 @@
       </c>
       <c r="C84" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>saturday</v>
+        <v>thursday</v>
       </c>
       <c r="D84" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="F84" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -3384,11 +3370,11 @@
       </c>
       <c r="G84" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>5.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H84" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="J84" s="1"/>
     </row>
@@ -3403,11 +3389,11 @@
       </c>
       <c r="C85" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>thursday</v>
+        <v>monday</v>
       </c>
       <c r="D85" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E85" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -3415,15 +3401,15 @@
       </c>
       <c r="F85" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G85" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>2.2000000000000002</v>
+        <v>4.3</v>
       </c>
       <c r="H85" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="J85" s="1"/>
     </row>
@@ -3438,27 +3424,27 @@
       </c>
       <c r="C86" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>sunday</v>
+        <v>monday</v>
       </c>
       <c r="D86" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="F86" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="G86" s="2">
         <f ca="1">VALUE(G25)</f>
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H86" s="2">
         <f ca="1">VALUE(H25)</f>
-        <v>4.0999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="J86" s="1"/>
     </row>
@@ -3469,31 +3455,31 @@
       </c>
       <c r="B87" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C87" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>tuesday</v>
+        <v>monday</v>
       </c>
       <c r="D87" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F87" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G87" s="2">
         <f t="shared" ref="G87:H101" ca="1" si="16">VALUE(G26)</f>
-        <v>9.1</v>
+        <v>6.1</v>
       </c>
       <c r="H87" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>7.3</v>
+        <v>10.3</v>
       </c>
       <c r="J87" s="1"/>
     </row>
@@ -3516,19 +3502,19 @@
       </c>
       <c r="E88" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F88" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="G88" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>4.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="H88" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="J88" s="1"/>
     </row>
@@ -3539,19 +3525,19 @@
       </c>
       <c r="B89" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C89" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>wednesday</v>
+        <v>monday</v>
       </c>
       <c r="D89" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E89" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="F89" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -3559,11 +3545,11 @@
       </c>
       <c r="G89" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H89" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>3.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J89" s="1"/>
     </row>
@@ -3574,31 +3560,31 @@
       </c>
       <c r="B90" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C90" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>monday</v>
+        <v>sunday</v>
       </c>
       <c r="D90" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E90" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F90" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G90" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2</v>
+        <v>6.3</v>
       </c>
       <c r="H90" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="J90" s="1"/>
     </row>
@@ -3609,7 +3595,7 @@
       </c>
       <c r="B91" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C91" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3621,19 +3607,19 @@
       </c>
       <c r="E91" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="F91" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G91" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>6.3</v>
+        <v>3.1</v>
       </c>
       <c r="H91" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>9.5</v>
+        <v>6.1</v>
       </c>
       <c r="J91" s="1"/>
     </row>
@@ -3644,31 +3630,31 @@
       </c>
       <c r="B92" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C92" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>tuesday</v>
+        <v>friday</v>
       </c>
       <c r="D92" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="F92" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G92" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>10.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H92" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>10.5</v>
+        <v>4</v>
       </c>
       <c r="J92" s="1"/>
     </row>
@@ -3679,7 +3665,7 @@
       </c>
       <c r="B93" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C93" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3687,11 +3673,11 @@
       </c>
       <c r="D93" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E93" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F93" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -3699,11 +3685,11 @@
       </c>
       <c r="G93" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>9.1999999999999993</v>
+        <v>3.1</v>
       </c>
       <c r="H93" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J93" s="1"/>
     </row>
@@ -3714,11 +3700,11 @@
       </c>
       <c r="B94" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C94" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>wednesday</v>
+        <v>tuesday</v>
       </c>
       <c r="D94" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -3726,19 +3712,19 @@
       </c>
       <c r="E94" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F94" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="G94" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2</v>
+        <v>10.3</v>
       </c>
       <c r="H94" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>8.1999999999999993</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J94" s="1"/>
     </row>
@@ -3749,7 +3735,7 @@
       </c>
       <c r="B95" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C95" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3757,23 +3743,23 @@
       </c>
       <c r="D95" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E95" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="F95" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H95" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>9.1</v>
+        <v>2</v>
       </c>
       <c r="J95" s="1"/>
     </row>
@@ -3784,27 +3770,27 @@
       </c>
       <c r="B96" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C96" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>friday</v>
+        <v>saturday</v>
       </c>
       <c r="D96" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E96" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>20</v>
+        <v>8.5</v>
       </c>
       <c r="F96" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="G96" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H96" s="2">
         <f t="shared" ca="1" si="16"/>
@@ -3819,19 +3805,19 @@
       </c>
       <c r="B97" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C97" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>tuesday</v>
+        <v>thursday</v>
       </c>
       <c r="D97" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E97" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="F97" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -3839,11 +3825,11 @@
       </c>
       <c r="G97" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
       <c r="H97" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>5.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J97" s="1"/>
     </row>
@@ -3854,31 +3840,31 @@
       </c>
       <c r="B98" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C98" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>monday</v>
+        <v>friday</v>
       </c>
       <c r="D98" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E98" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F98" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G98" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="H98" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>3.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J98" s="1"/>
     </row>
@@ -3889,31 +3875,31 @@
       </c>
       <c r="B99" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C99" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>wednesday</v>
+        <v>friday</v>
       </c>
       <c r="D99" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E99" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="F99" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="G99" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="H99" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="J99" s="1"/>
     </row>
@@ -3924,31 +3910,31 @@
       </c>
       <c r="B100" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C100" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>monday</v>
+        <v>tuesday</v>
       </c>
       <c r="D100" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F100" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G100" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="H100" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>1.1000000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="J100" s="1"/>
     </row>
@@ -3959,11 +3945,11 @@
       </c>
       <c r="B101" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C101" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>sunday</v>
+        <v>wednesday</v>
       </c>
       <c r="D101" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -3971,7 +3957,7 @@
       </c>
       <c r="E101" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="F101" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -3979,11 +3965,11 @@
       </c>
       <c r="G101" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>3.4</v>
+        <v>6.3</v>
       </c>
       <c r="H101" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>3.2</v>
+        <v>10.4</v>
       </c>
       <c r="J101" s="1"/>
     </row>
@@ -3992,7 +3978,7 @@
     <sortCondition ref="A1"/>
   </sortState>
   <conditionalFormatting sqref="E102:E1048576">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>"{0,5;1;2;3}"</formula>
     </cfRule>
   </conditionalFormatting>
